--- a/backtesting.xlsx
+++ b/backtesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinki\PycharmProjects\kosdaq_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BAFC2-3135-40E1-B4F3-1E943427784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBDB926-3A70-4772-92C2-700580C290D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-7560" windowWidth="17496" windowHeight="30336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,280 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KiHa Shin</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B820CD19-4A11-438E-8AC7-9A071540DF25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추천한날</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{91A0A6C9-6B21-4197-9C51-EC8FF1E922E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추천한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>익일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시가</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8BE7E704-48D7-4262-B9C0-830856DC3A7C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추천후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영업일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최고가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9AD148AC-B85B-4716-8C78-632A2B060E13}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추천</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영업일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최저가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,10 +982,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +1008,41 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -767,10 +1077,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -779,8 +1092,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,6 +1109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -23056,10 +23375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC33D-7616-48EE-A7F9-7ECBE398519B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC33D-7616-48EE-A7F9-7ECBE398519B}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -23108,10 +23429,10 @@
       <c r="F2">
         <v>376</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>1.011600928074246</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>0.87238979118329463</v>
       </c>
     </row>
@@ -23132,10 +23453,10 @@
       <c r="F3">
         <v>590</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1.0175438596491231</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.94098883572567782</v>
       </c>
     </row>
@@ -23156,10 +23477,10 @@
       <c r="F4">
         <v>9560</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>1.25</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -23182,10 +23503,10 @@
       <c r="F5">
         <v>1735</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>1.638356164383562</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0.9506849315068493</v>
       </c>
     </row>
@@ -23206,10 +23527,10 @@
       <c r="F6">
         <v>14600</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>1.054662379421222</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.93890675241157562</v>
       </c>
     </row>
@@ -23230,10 +23551,10 @@
       <c r="F7">
         <v>4675</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>1.1489361702127661</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>0.99468085106382975</v>
       </c>
     </row>
@@ -23254,10 +23575,10 @@
       <c r="F8">
         <v>3445</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>1.117142857142857</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.98428571428571432</v>
       </c>
     </row>
@@ -23278,10 +23599,10 @@
       <c r="F9">
         <v>5600</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>1.0171821305841919</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0.96219931271477666</v>
       </c>
     </row>
@@ -23302,10 +23623,10 @@
       <c r="F10">
         <v>4680</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>1.071207430340557</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.96594427244582048</v>
       </c>
     </row>
@@ -23326,10 +23647,10 @@
       <c r="F11">
         <v>4510</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1.120300751879699</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>0.84774436090225569</v>
       </c>
     </row>
@@ -23350,10 +23671,10 @@
       <c r="F12">
         <v>3775</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>1.114143920595533</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.93672456575682383</v>
       </c>
     </row>
@@ -23374,10 +23695,10 @@
       <c r="F13">
         <v>349</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>1.2234957020057311</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -23400,10 +23721,10 @@
       <c r="F14">
         <v>1615</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>0.91501416430594906</v>
       </c>
     </row>
@@ -23424,10 +23745,10 @@
       <c r="F15">
         <v>8300</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>1.036817102137767</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>0.98574821852731587</v>
       </c>
     </row>
@@ -23448,10 +23769,10 @@
       <c r="F16">
         <v>5250</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>1.091932457786116</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>0.98499061913696062</v>
       </c>
     </row>
@@ -23472,10 +23793,10 @@
       <c r="F17">
         <v>2565</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>1.1961165048543689</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.99611650485436898</v>
       </c>
     </row>
@@ -23496,10 +23817,10 @@
       <c r="F18">
         <v>1270</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>1.095785440613027</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>0.97318007662835249</v>
       </c>
     </row>
@@ -23520,10 +23841,10 @@
       <c r="F19">
         <v>2405</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>1.04950495049505</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>0.95247524752475243</v>
       </c>
     </row>
@@ -23544,10 +23865,10 @@
       <c r="F20">
         <v>15950</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>1.05521472392638</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>0.9785276073619632</v>
       </c>
     </row>
@@ -23568,10 +23889,10 @@
       <c r="F21">
         <v>5840</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>1.0354838709677421</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>0.9419354838709677</v>
       </c>
     </row>
@@ -23592,10 +23913,10 @@
       <c r="F22">
         <v>13300</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>1.0716845878136201</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>0.95340501792114696</v>
       </c>
     </row>
@@ -23616,10 +23937,10 @@
       <c r="F23">
         <v>3410</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>1.0815450643776821</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>0.97567954220314734</v>
       </c>
     </row>
@@ -23642,10 +23963,10 @@
       <c r="F24">
         <v>3800</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>1.079487179487179</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0.97435897435897434</v>
       </c>
     </row>
@@ -23666,10 +23987,10 @@
       <c r="F25">
         <v>613</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>1.2153110047846889</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>0.97767145135566191</v>
       </c>
     </row>
@@ -23690,10 +24011,10 @@
       <c r="F26">
         <v>2535</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>1.1203155818540429</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -23714,10 +24035,10 @@
       <c r="F27">
         <v>2405</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>1.380368098159509</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>0.98364008179959095</v>
       </c>
     </row>
@@ -23738,10 +24059,10 @@
       <c r="F28">
         <v>5030</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>1.254863813229572</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>0.97859922178988323</v>
       </c>
     </row>
@@ -23762,10 +24083,10 @@
       <c r="F29">
         <v>4385</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>1.182022471910112</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>0.98539325842696635</v>
       </c>
     </row>
@@ -23786,10 +24107,10 @@
       <c r="F30">
         <v>1195</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>1.1625000000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>0.99583333333333335</v>
       </c>
     </row>
@@ -23810,10 +24131,10 @@
       <c r="F31">
         <v>5340</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>1.2891344383057091</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>0.98342541436464093</v>
       </c>
     </row>
@@ -23836,10 +24157,10 @@
       <c r="F32">
         <v>3615</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>1.0465425531914889</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>0.96143617021276595</v>
       </c>
     </row>
@@ -23860,10 +24181,10 @@
       <c r="F33">
         <v>306</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>1.121794871794872</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>0.98076923076923073</v>
       </c>
     </row>
@@ -23884,10 +24205,10 @@
       <c r="F34">
         <v>4035</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>1.0526315789473679</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>0.9877600979192166</v>
       </c>
     </row>
@@ -23908,10 +24229,10 @@
       <c r="F35">
         <v>44600</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>1.066069428891377</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>0.99888017917133254</v>
       </c>
     </row>
@@ -23932,10 +24253,10 @@
       <c r="F36">
         <v>78000</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>1.106329113924051</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>0.98734177215189878</v>
       </c>
     </row>
@@ -23956,10 +24277,10 @@
       <c r="F37">
         <v>2510</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>1.0392156862745101</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>0.98431372549019602</v>
       </c>
     </row>
@@ -23980,10 +24301,10 @@
       <c r="F38">
         <v>11250</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>1.025974025974026</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>0.97402597402597402</v>
       </c>
     </row>
@@ -24004,10 +24325,10 @@
       <c r="F39">
         <v>3095</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>1.027113237639554</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>0.98724082934609247</v>
       </c>
     </row>
@@ -24028,10 +24349,10 @@
       <c r="F40">
         <v>10250</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>1.037037037037037</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>0.94907407407407407</v>
       </c>
     </row>
@@ -24052,10 +24373,10 @@
       <c r="F41">
         <v>1125</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>1.075555555555556</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -24078,10 +24399,10 @@
       <c r="F42">
         <v>7750</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>0.97853535353535348</v>
       </c>
     </row>
@@ -24102,10 +24423,10 @@
       <c r="F43">
         <v>11800</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>1.012</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>0.94399999999999995</v>
       </c>
     </row>
@@ -24126,10 +24447,10 @@
       <c r="F44">
         <v>27450</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>1.333333333333333</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>0.96825396825396826</v>
       </c>
     </row>
@@ -24150,10 +24471,10 @@
       <c r="F45">
         <v>2510</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>1.0211946050096341</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>0.96724470134874763</v>
       </c>
     </row>
@@ -24174,10 +24495,10 @@
       <c r="F46">
         <v>2625</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>1.0383912248628879</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>0.95978062157221211</v>
       </c>
     </row>
@@ -24198,10 +24519,10 @@
       <c r="F47">
         <v>713</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>1.1532033426183841</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>0.99303621169916434</v>
       </c>
     </row>
@@ -24222,10 +24543,10 @@
       <c r="F48">
         <v>827</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>1.2309495896834699</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>0.96951934349355218</v>
       </c>
     </row>
@@ -24246,10 +24567,10 @@
       <c r="F49">
         <v>1330</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>1.195652173913043</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>0.96376811594202894</v>
       </c>
     </row>
@@ -24270,10 +24591,10 @@
       <c r="F50">
         <v>28150</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>1.1333333333333331</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>0.987719298245614</v>
       </c>
     </row>
@@ -24294,10 +24615,10 @@
       <c r="F51">
         <v>9260</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>1.1587982832618029</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>0.99356223175965663</v>
       </c>
     </row>
@@ -24320,10 +24641,10 @@
       <c r="F52">
         <v>18350</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>1.08421052631579</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>0.96578947368421053</v>
       </c>
     </row>
@@ -24344,10 +24665,10 @@
       <c r="F53">
         <v>975</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>1.152304609218437</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>0.9769539078156313</v>
       </c>
     </row>
@@ -24368,10 +24689,10 @@
       <c r="F54">
         <v>6439</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>0.93076033535703961</v>
       </c>
     </row>
@@ -24394,10 +24715,10 @@
       <c r="F55">
         <v>370</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>1.0473815461346629</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>0.92269326683291775</v>
       </c>
     </row>
@@ -24418,10 +24739,10 @@
       <c r="F56">
         <v>80100</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>1.045454545454545</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>0.95813397129186606</v>
       </c>
     </row>
@@ -24442,10 +24763,10 @@
       <c r="F57">
         <v>2545</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>1.0056925996204931</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>0.96584440227703983</v>
       </c>
     </row>
@@ -24466,10 +24787,10 @@
       <c r="F58">
         <v>2250</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>1.03023758099352</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>0.97192224622030232</v>
       </c>
     </row>
@@ -24490,10 +24811,10 @@
       <c r="F59">
         <v>1165</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>1.033333333333333</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>0.97083333333333333</v>
       </c>
     </row>
@@ -24516,10 +24837,10 @@
       <c r="F60">
         <v>763</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>1.1975609756097561</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>0.93048780487804883</v>
       </c>
     </row>
@@ -24542,10 +24863,10 @@
       <c r="F61">
         <v>755</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>1.0071174377224199</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>0.89561091340450771</v>
       </c>
     </row>
@@ -24566,10 +24887,10 @@
       <c r="F62">
         <v>1070</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>0.90295358649789026</v>
       </c>
     </row>
@@ -24590,10 +24911,10 @@
       <c r="F63">
         <v>4165</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>1.1343638525564801</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>0.99048751486325803</v>
       </c>
     </row>
@@ -24614,10 +24935,10 @@
       <c r="F64">
         <v>11250</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>1.0116731517509729</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>0.8754863813229572</v>
       </c>
     </row>
@@ -24638,10 +24959,10 @@
       <c r="F65">
         <v>8230</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>1.162679425837321</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>0.98444976076555024</v>
       </c>
     </row>
@@ -24662,10 +24983,10 @@
       <c r="F66">
         <v>775</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>1.019680196801968</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>0.95325953259532592</v>
       </c>
     </row>
@@ -24688,10 +25009,10 @@
       <c r="F67">
         <v>15150</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>1.0668789808917201</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>0.96496815286624205</v>
       </c>
     </row>
@@ -24712,10 +25033,10 @@
       <c r="F68">
         <v>6470</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>1</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>0.92428571428571427</v>
       </c>
     </row>
@@ -24736,10 +25057,10 @@
       <c r="F69">
         <v>2525</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>1.1871455576559551</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>0.95463137996219283</v>
       </c>
     </row>
@@ -24760,10 +25081,10 @@
       <c r="F70">
         <v>2650</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>1.0729927007299269</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>0.96715328467153283</v>
       </c>
     </row>
@@ -24786,10 +25107,10 @@
       <c r="F71">
         <v>13100</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>1.003496503496504</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>0.91608391608391604</v>
       </c>
     </row>
@@ -24812,10 +25133,10 @@
       <c r="F72">
         <v>4990</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>1.03307392996109</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>0.97081712062256809</v>
       </c>
     </row>
@@ -24836,10 +25157,10 @@
       <c r="F73">
         <v>3310</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>1.043909348441926</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <v>0.93767705382436262</v>
       </c>
     </row>
@@ -24860,10 +25181,10 @@
       <c r="F74">
         <v>1003</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>1.055555555555556</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <v>0.9287037037037037</v>
       </c>
     </row>
@@ -24884,10 +25205,10 @@
       <c r="F75">
         <v>6559</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>1.160181680545042</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <v>0.99303557910673734</v>
       </c>
     </row>
@@ -24910,10 +25231,10 @@
       <c r="F76">
         <v>6816</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <v>1.101955708944492</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="4">
         <v>0.9801553062985332</v>
       </c>
     </row>
@@ -24936,10 +25257,10 @@
       <c r="F77">
         <v>12410</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="4">
         <v>1.1053446940356311</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>0.96127033307513554</v>
       </c>
     </row>
@@ -24960,10 +25281,10 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>1.133811230585424</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="4">
         <v>0</v>
       </c>
     </row>
@@ -24984,10 +25305,10 @@
       <c r="F79">
         <v>19580</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>1.044776119402985</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <v>0.97412935323383087</v>
       </c>
     </row>
@@ -25008,10 +25329,10 @@
       <c r="F80">
         <v>9050</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>1.052173913043478</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <v>0.87439613526570048</v>
       </c>
     </row>
@@ -25032,10 +25353,10 @@
       <c r="F81">
         <v>1488</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>1.0374435119431891</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <v>0.96061975468043903</v>
       </c>
     </row>
@@ -25056,10 +25377,10 @@
       <c r="F82">
         <v>5530</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>1.0153846153846151</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>0.94529914529914527</v>
       </c>
     </row>
@@ -25082,10 +25403,10 @@
       <c r="F83">
         <v>7550</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>1.0088945362134689</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>0.9593392630241423</v>
       </c>
     </row>
@@ -25106,10 +25427,10 @@
       <c r="F84">
         <v>3180</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>1.0014749262536871</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>0.93805309734513276</v>
       </c>
     </row>
@@ -25130,10 +25451,10 @@
       <c r="F85">
         <v>1488</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>1.0408031088082901</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>0.96373056994818651</v>
       </c>
     </row>
@@ -25156,10 +25477,10 @@
       <c r="F86">
         <v>13030</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>1.1121987951807231</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="4">
         <v>0.98117469879518071</v>
       </c>
     </row>
@@ -25182,10 +25503,10 @@
       <c r="F87">
         <v>1890</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <v>1.0312180143295799</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="4">
         <v>0.96724667349027638</v>
       </c>
     </row>
@@ -25206,10 +25527,10 @@
       <c r="F88">
         <v>3250</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <v>1.0657894736842111</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="4">
         <v>0.95029239766081874</v>
       </c>
     </row>
@@ -25230,10 +25551,10 @@
       <c r="F89">
         <v>850</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>1.0213723284589431</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="4">
         <v>0.95613048368953879</v>
       </c>
     </row>
@@ -25254,10 +25575,10 @@
       <c r="F90">
         <v>1704</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <v>1.429734129137276</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="4">
         <v>0.92457948996201844</v>
       </c>
     </row>
@@ -25278,10 +25599,10 @@
       <c r="F91">
         <v>25650</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <v>1.510679611650485</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>0.99611650485436898</v>
       </c>
     </row>
@@ -25304,10 +25625,10 @@
       <c r="F92">
         <v>29300</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>1.01468189233279</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>0.9559543230016313</v>
       </c>
     </row>
@@ -25330,10 +25651,10 @@
       <c r="F93">
         <v>12100</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>1.4170542635658909</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="4">
         <v>0.93798449612403101</v>
       </c>
     </row>
@@ -25356,10 +25677,10 @@
       <c r="F94">
         <v>1782</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>1.4590347923681259</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="4">
         <v>1</v>
       </c>
     </row>
@@ -25380,10 +25701,10 @@
       <c r="F95">
         <v>5240</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>1.04089219330855</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>0.97397769516728627</v>
       </c>
     </row>
@@ -25404,10 +25725,10 @@
       <c r="F96">
         <v>3325</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>1.0414285714285709</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>0.95</v>
       </c>
     </row>
@@ -25428,10 +25749,10 @@
       <c r="F97">
         <v>4295</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>1.019362186788155</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>0.97835990888382685</v>
       </c>
     </row>
@@ -25452,10 +25773,10 @@
       <c r="F98">
         <v>6490</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="4">
         <v>1.0506134969325149</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="4">
         <v>0.995398773006135</v>
       </c>
     </row>
@@ -25476,10 +25797,10 @@
       <c r="F99">
         <v>1250</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>1.027820710973725</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>0.96599690880989186</v>
       </c>
     </row>
@@ -25500,10 +25821,10 @@
       <c r="F100">
         <v>18000</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>1.0186170212765959</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>0.95744680851063835</v>
       </c>
     </row>
@@ -25526,10 +25847,10 @@
       <c r="F101">
         <v>1000</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>1.0058708414872799</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>0.97847358121330719</v>
       </c>
     </row>
@@ -25550,10 +25871,10 @@
       <c r="F102">
         <v>4320</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>1.006749156355456</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="4">
         <v>0.97187851518560175</v>
       </c>
     </row>
@@ -25574,10 +25895,10 @@
       <c r="F103">
         <v>3140</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>1</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="4">
         <v>0.92352941176470593</v>
       </c>
     </row>
@@ -25598,10 +25919,10 @@
       <c r="F104">
         <v>14710</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>1.024454725710509</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>0.97224058162590876</v>
       </c>
     </row>
@@ -25622,10 +25943,10 @@
       <c r="F105">
         <v>1442</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>1.051643192488263</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>0.96713615023474175</v>
       </c>
     </row>
@@ -25646,10 +25967,10 @@
       <c r="F106">
         <v>869</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>1.014444444444444</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>0.9655555555555555</v>
       </c>
     </row>
@@ -25670,10 +25991,10 @@
       <c r="F107">
         <v>3250</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>1.0219941348973609</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>0.95307917888563054</v>
       </c>
     </row>
@@ -25694,10 +26015,10 @@
       <c r="F108">
         <v>7840</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>1.2106537530266339</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>0.94915254237288138</v>
       </c>
     </row>
@@ -25718,10 +26039,10 @@
       <c r="F109">
         <v>880</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>1.007912957467854</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="4">
         <v>0.87042532146389717</v>
       </c>
     </row>
@@ -25744,10 +26065,10 @@
       <c r="F110">
         <v>1700</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>1.664753157290471</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>0.97588978185993114</v>
       </c>
     </row>
@@ -25768,10 +26089,10 @@
       <c r="F111">
         <v>1649</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>1.029493600445186</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>0.91764051196438512</v>
       </c>
     </row>
@@ -25794,10 +26115,10 @@
       <c r="F112">
         <v>1206</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>1.0387351778656131</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>0.95335968379446645</v>
       </c>
     </row>
@@ -25818,10 +26139,10 @@
       <c r="F113">
         <v>9400</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>1.033934252386002</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>0.99681866383881235</v>
       </c>
     </row>
@@ -25842,10 +26163,10 @@
       <c r="F114">
         <v>9380</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>1.0270531400966181</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>0.90628019323671494</v>
       </c>
     </row>
@@ -25866,10 +26187,10 @@
       <c r="F115">
         <v>10400</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>1.165067178502879</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>0.99808061420345484</v>
       </c>
     </row>
@@ -25892,10 +26213,10 @@
       <c r="F116">
         <v>23750</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>1.0246406570841891</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>0.97535934291581106</v>
       </c>
     </row>
@@ -25916,10 +26237,10 @@
       <c r="F117">
         <v>13550</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>1.04140350877193</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>0.9508771929824561</v>
       </c>
     </row>
@@ -25942,10 +26263,10 @@
       <c r="F118">
         <v>3800</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>1.2454545454545449</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>0.98701298701298701</v>
       </c>
     </row>
@@ -25966,38 +26287,39 @@
       <c r="F119">
         <v>9920</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>1.0128585558852621</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>0.98120672601384773</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A94:A100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>